--- a/biology/Botanique/Commiphora/Commiphora.xlsx
+++ b/biology/Botanique/Commiphora/Commiphora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commiphora est un genre botanique de la famille des Burseraceae. Il est composé d'environ 185 espèces d'arbres ou arbustes souvent épineux, originaires des bords de la mer Rouge, de l'Inde, de Madagascar et du Sénégal.
 Synonymes : Balsamea, Balsamodendron L.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Commiphora acuminata
 Commiphora africana - Myrrhe africaine. Barkanti ou Dracé en bambara chez les Maliens
@@ -533,7 +547,7 @@
 Commiphora aprevalii
 Commiphora arafy
 Commiphora arenaria
-Commiphora kataf[2] ou Commiphora erythraea - Opopanax ou Myrrhe douce
+Commiphora kataf ou Commiphora erythraea - Opopanax ou Myrrhe douce
 Commiphora foliacea Sprague
 Commiphora glandulosa
 Commiphora habessinica (Berg) Engler
